--- a/finacial documents/pl2.xlsx
+++ b/finacial documents/pl2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tjolalekan/Documents/interdisciplinary/interdisciplinary/finacial documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D1968E-D9B9-884A-B7B1-B3150FF160F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8AB43A-086A-BB4E-841A-EB1786B43514}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="460" windowWidth="28060" windowHeight="16400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P&amp;L Statement (2)" sheetId="2" r:id="rId1"/>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="54">
-  <si>
-    <t>Outside services</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
   <si>
     <t>Advertising</t>
   </si>
@@ -59,18 +56,9 @@
     <t>Cost of Sales</t>
   </si>
   <si>
-    <t>Depreciation</t>
-  </si>
-  <si>
     <t>Profit and Loss Statement</t>
   </si>
   <si>
-    <t>Direct marketing</t>
-  </si>
-  <si>
-    <t>Meals and entertainment</t>
-  </si>
-  <si>
     <t>Wages and salaries</t>
   </si>
   <si>
@@ -92,12 +80,6 @@
     <t>% Change from Budget</t>
   </si>
   <si>
-    <t xml:space="preserve">Patents </t>
-  </si>
-  <si>
-    <t>Technology licenses</t>
-  </si>
-  <si>
     <t>Income taxes</t>
   </si>
   <si>
@@ -173,28 +155,34 @@
     <t>Start up</t>
   </si>
   <si>
-    <t xml:space="preserve">Taxes </t>
-  </si>
-  <si>
     <t>interest paid</t>
   </si>
   <si>
     <t>Brain Training Game Ltd</t>
   </si>
   <si>
-    <t>For the  Year ending 12-12-2019&gt;</t>
-  </si>
-  <si>
     <t>Owners</t>
   </si>
   <si>
     <t>Game Sales</t>
   </si>
   <si>
-    <t>For the  Year ending 12-12-2020&gt;</t>
-  </si>
-  <si>
     <t>Wages and Salaries</t>
+  </si>
+  <si>
+    <t>For the  Year ending 12-12-2021&gt;</t>
+  </si>
+  <si>
+    <t>Maintainance</t>
+  </si>
+  <si>
+    <t>rent</t>
+  </si>
+  <si>
+    <t>Games Sales</t>
+  </si>
+  <si>
+    <t>Maintainance and Repairs</t>
   </si>
 </sst>
 </file>
@@ -312,7 +300,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -433,11 +421,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="21"/>
+      </left>
+      <right style="thin">
+        <color indexed="21"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC0C0C0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -586,6 +589,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -973,11 +979,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="157" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
+      <pane ySplit="9" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="26" customHeight="1"/>
@@ -990,7 +996,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="26" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -1001,7 +1007,7 @@
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="26" customHeight="1">
       <c r="A2" s="14" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -1021,12 +1027,12 @@
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="15"/>
       <c r="D4" s="14" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
@@ -1043,7 +1049,7 @@
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" ht="11" customHeight="1">
       <c r="A6" s="17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B6" s="18" t="str">
         <f>IF(D16=0,"-",D25/D16)</f>
@@ -1057,10 +1063,10 @@
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1" ht="1" customHeight="1">
       <c r="A7" s="19" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B7" s="20" t="str">
-        <f>IF(D16=0,"-",D61/D16)</f>
+        <f>IF(D16=0,"-",D52/D16)</f>
         <v>-</v>
       </c>
       <c r="C7" s="15"/>
@@ -1081,22 +1087,22 @@
     <row r="9" spans="1:7" s="6" customFormat="1" ht="1" customHeight="1">
       <c r="A9" s="16"/>
       <c r="B9" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="22" t="s">
         <v>14</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="6" customFormat="1" ht="26" customHeight="1">
@@ -1110,7 +1116,7 @@
     </row>
     <row r="11" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
       <c r="A11" s="29" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
@@ -1121,7 +1127,7 @@
     </row>
     <row r="12" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
       <c r="A12" s="32" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B12" s="33"/>
       <c r="C12" s="55">
@@ -1143,7 +1149,7 @@
     </row>
     <row r="13" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
       <c r="A13" s="32" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
@@ -1163,7 +1169,7 @@
     </row>
     <row r="14" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
       <c r="A14" s="32" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
@@ -1183,7 +1189,7 @@
     </row>
     <row r="15" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
       <c r="A15" s="32" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
@@ -1203,7 +1209,7 @@
     </row>
     <row r="16" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
       <c r="A16" s="37" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B16" s="38">
         <f>SUM(B12:B15)</f>
@@ -1241,7 +1247,7 @@
     </row>
     <row r="18" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
       <c r="A18" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" s="40"/>
       <c r="C18" s="40"/>
@@ -1252,7 +1258,7 @@
     </row>
     <row r="19" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
       <c r="A19" s="32" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B19" s="33">
         <v>0</v>
@@ -1278,14 +1284,12 @@
     </row>
     <row r="20" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
       <c r="A20" s="32" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B20" s="33">
         <v>0</v>
       </c>
-      <c r="C20" s="33">
-        <v>0</v>
-      </c>
+      <c r="C20" s="33"/>
       <c r="D20" s="33">
         <v>0</v>
       </c>
@@ -1322,7 +1326,7 @@
     </row>
     <row r="22" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
       <c r="A22" s="32" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B22" s="35"/>
       <c r="C22" s="35">
@@ -1344,7 +1348,7 @@
     </row>
     <row r="23" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
       <c r="A23" s="37" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B23" s="38">
         <f>SUM(B19:B22)</f>
@@ -1382,7 +1386,7 @@
     </row>
     <row r="25" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
       <c r="A25" s="42" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B25" s="43">
         <f>B16-B23</f>
@@ -1420,7 +1424,7 @@
     </row>
     <row r="27" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
       <c r="A27" s="29" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B27" s="40"/>
       <c r="C27" s="40"/>
@@ -1431,7 +1435,7 @@
     </row>
     <row r="28" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
       <c r="A28" s="45" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28" s="33">
         <v>0</v>
@@ -1441,24 +1445,26 @@
       </c>
       <c r="D28" s="33"/>
       <c r="E28" s="34" t="str">
-        <f t="shared" ref="E28:E48" si="0">IF($D$16=0,"-",D28/$D$16)</f>
+        <f t="shared" ref="E28:E39" si="0">IF($D$16=0,"-",D28/$D$16)</f>
         <v>-</v>
       </c>
       <c r="F28" s="34" t="str">
-        <f t="shared" ref="F28:F48" si="1">IF(D28=0,"-",D28/B28-1)</f>
+        <f t="shared" ref="F28:F39" si="1">IF(D28=0,"-",D28/B28-1)</f>
         <v>-</v>
       </c>
       <c r="G28" s="34" t="str">
-        <f t="shared" ref="G28:G48" si="2">IF(D28=0,"-",D28/C28-1)</f>
+        <f t="shared" ref="G28:G39" si="2">IF(D28=0,"-",D28/C28-1)</f>
         <v>-</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
       <c r="A29" s="45" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
+      <c r="C29" s="33">
+        <v>4000</v>
+      </c>
       <c r="D29" s="33"/>
       <c r="E29" s="34" t="str">
         <f t="shared" si="0"/>
@@ -1475,10 +1481,12 @@
     </row>
     <row r="30" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
       <c r="A30" s="45" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B30" s="33"/>
-      <c r="C30" s="54"/>
+      <c r="C30" s="33">
+        <v>83680</v>
+      </c>
       <c r="D30" s="33"/>
       <c r="E30" s="34" t="str">
         <f t="shared" si="0"/>
@@ -1495,11 +1503,13 @@
     </row>
     <row r="31" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
       <c r="A31" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="35"/>
+        <v>28</v>
+      </c>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33">
+        <v>720</v>
+      </c>
+      <c r="D31" s="33"/>
       <c r="E31" s="34" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
@@ -1515,10 +1525,12 @@
     </row>
     <row r="32" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
       <c r="A32" s="45" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
+      <c r="C32" s="33">
+        <v>24000</v>
+      </c>
       <c r="D32" s="33"/>
       <c r="E32" s="34" t="str">
         <f t="shared" si="0"/>
@@ -1535,10 +1547,12 @@
     </row>
     <row r="33" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
       <c r="A33" s="45" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
+      <c r="C33" s="33">
+        <v>840</v>
+      </c>
       <c r="D33" s="33"/>
       <c r="E33" s="34" t="str">
         <f t="shared" si="0"/>
@@ -1555,11 +1569,11 @@
     </row>
     <row r="34" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
       <c r="A34" s="45" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B34" s="33"/>
       <c r="C34" s="33">
-        <v>4000</v>
+        <v>3600</v>
       </c>
       <c r="D34" s="33"/>
       <c r="E34" s="34" t="str">
@@ -1577,11 +1591,13 @@
     </row>
     <row r="35" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
       <c r="A35" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
+        <v>4</v>
+      </c>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33">
+        <v>1000</v>
+      </c>
+      <c r="D35" s="33"/>
       <c r="E35" s="34" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
@@ -1597,11 +1613,11 @@
     </row>
     <row r="36" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
       <c r="A36" s="45" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B36" s="33"/>
-      <c r="C36" s="33">
-        <v>172800</v>
+      <c r="C36" s="54">
+        <v>2500</v>
       </c>
       <c r="D36" s="33"/>
       <c r="E36" s="34" t="str">
@@ -1619,10 +1635,12 @@
     </row>
     <row r="37" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
       <c r="A37" s="45" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
+      <c r="C37" s="33">
+        <v>160</v>
+      </c>
       <c r="D37" s="33"/>
       <c r="E37" s="34" t="str">
         <f t="shared" si="0"/>
@@ -1639,11 +1657,11 @@
     </row>
     <row r="38" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
       <c r="A38" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
+        <v>5</v>
+      </c>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
       <c r="E38" s="34" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
@@ -1658,12 +1676,21 @@
       </c>
     </row>
     <row r="39" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
-      <c r="A39" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
+      <c r="A39" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="38">
+        <f>SUM(B30:B38)</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="38">
+        <f>SUM(C30:C38)</f>
+        <v>116500</v>
+      </c>
+      <c r="D39" s="38">
+        <f>SUM(D30:D38)</f>
+        <v>0</v>
+      </c>
       <c r="E39" s="34" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
@@ -1678,461 +1705,338 @@
       </c>
     </row>
     <row r="40" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
-      <c r="A40" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="F40" s="34" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="G40" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
+      <c r="A40" s="47"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
     </row>
     <row r="41" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
-      <c r="A41" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33">
-        <v>840</v>
-      </c>
-      <c r="D41" s="33"/>
-      <c r="E41" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="F41" s="34" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="G41" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
+      <c r="A41" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="43">
+        <f>B25-B39</f>
+        <v>0</v>
+      </c>
+      <c r="C41" s="43">
+        <f>C25-C39</f>
+        <v>37725</v>
+      </c>
+      <c r="D41" s="43">
+        <f>D25-D39</f>
+        <v>0</v>
+      </c>
+      <c r="E41" s="44" t="str">
+        <f>IF($D$16=0,"-",D41/$D$16)</f>
+        <v>-</v>
+      </c>
+      <c r="F41" s="44" t="str">
+        <f>IF(B41=0,"-",IF(B41=D41,"0.0%",IF(D41&gt;B41,ABS((D41/B41)-1),IF(AND(D41&lt;B41,B41&lt;0),-((D41/B41)-1),(D41/B41)-1))))</f>
+        <v>-</v>
+      </c>
+      <c r="G41" s="44">
+        <f>IF(C41=0,"-",IF(C41=D41,"0.0%",IF(D41&gt;C41,ABS((D41/C41)-1),IF(AND(D41&lt;C41,C41&lt;0),-((D41/C41)-1),(D41/C41)-1))))</f>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
-      <c r="A42" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33">
-        <v>1200</v>
-      </c>
-      <c r="D42" s="33"/>
-      <c r="E42" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="F42" s="34" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="G42" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
+      <c r="A42" s="48"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
     </row>
     <row r="43" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
-      <c r="A43" s="45" t="s">
-        <v>8</v>
+      <c r="A43" s="51" t="s">
+        <v>38</v>
       </c>
       <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
+      <c r="C43" s="33">
+        <v>10000</v>
+      </c>
       <c r="D43" s="33"/>
-      <c r="E43" s="34" t="str">
-        <f t="shared" si="0"/>
+      <c r="E43" s="52" t="str">
+        <f>IF($D$16=0,"-",D43/$D$16)</f>
         <v>-</v>
       </c>
       <c r="F43" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(D43=0,"-",D43/B43-1)</f>
         <v>-</v>
       </c>
       <c r="G43" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(D43=0,"-",D43/C43-1)</f>
         <v>-</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
-      <c r="A44" s="45" t="s">
-        <v>5</v>
+      <c r="A44" s="51" t="s">
+        <v>42</v>
       </c>
       <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
+      <c r="C44" s="33">
+        <v>5000</v>
+      </c>
       <c r="D44" s="33"/>
-      <c r="E44" s="34" t="str">
-        <f t="shared" si="0"/>
+      <c r="E44" s="52" t="str">
+        <f>IF($D$16=0,"-",D44/$D$16)</f>
         <v>-</v>
       </c>
       <c r="F44" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(D44=0,"-",D44/B44-1)</f>
         <v>-</v>
       </c>
       <c r="G44" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(D44=0,"-",D44/C44-1)</f>
         <v>-</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
-      <c r="A45" s="45" t="s">
-        <v>47</v>
+      <c r="A45" s="51" t="s">
+        <v>39</v>
       </c>
       <c r="B45" s="33"/>
-      <c r="C45" s="54">
-        <v>2500</v>
+      <c r="C45" s="33">
+        <v>13000</v>
       </c>
       <c r="D45" s="33"/>
-      <c r="E45" s="34" t="str">
-        <f t="shared" si="0"/>
+      <c r="E45" s="52" t="str">
+        <f>IF($D$16=0,"-",D45/$D$16)</f>
         <v>-</v>
       </c>
       <c r="F45" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(D45=0,"-",D45/B45-1)</f>
         <v>-</v>
       </c>
       <c r="G45" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(D45=0,"-",D45/C45-1)</f>
         <v>-</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
-      <c r="A46" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="F46" s="34" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="G46" s="34" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
+      <c r="A46" s="48"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
     </row>
     <row r="47" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
-      <c r="A47" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
+      <c r="A47" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="33"/>
+      <c r="C47" s="33">
+        <v>35472</v>
+      </c>
+      <c r="D47" s="33"/>
       <c r="E47" s="34" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($D$16=0,"-",D47/$D$16)</f>
         <v>-</v>
       </c>
       <c r="F47" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(D47=0,"-",D47/B47-1)</f>
         <v>-</v>
       </c>
       <c r="G47" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(D47=0,"-",D47/C47-1)</f>
         <v>-</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
-      <c r="A48" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="B48" s="38">
-        <f>SUM(B36:B47)</f>
-        <v>0</v>
-      </c>
-      <c r="C48" s="38">
-        <f>SUM(C36:C47)</f>
-        <v>177340</v>
-      </c>
-      <c r="D48" s="38">
-        <f>SUM(D36:D47)</f>
-        <v>0</v>
-      </c>
+      <c r="A48" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="33"/>
+      <c r="C48" s="33">
+        <v>299</v>
+      </c>
+      <c r="D48" s="33"/>
       <c r="E48" s="34" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($D$16=0,"-",D48/$D$16)</f>
         <v>-</v>
       </c>
       <c r="F48" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(D48=0,"-",D48/B48-1)</f>
         <v>-</v>
       </c>
       <c r="G48" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(D48=0,"-",D48/C48-1)</f>
         <v>-</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
-      <c r="A49" s="47"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
+      <c r="A49" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="34" t="str">
+        <f>IF($D$16=0,"-",D49/$D$16)</f>
+        <v>-</v>
+      </c>
+      <c r="F49" s="34" t="str">
+        <f>IF(D49=0,"-",D49/B49-1)</f>
+        <v>-</v>
+      </c>
+      <c r="G49" s="34" t="str">
+        <f>IF(D49=0,"-",D49/C49-1)</f>
+        <v>-</v>
+      </c>
     </row>
     <row r="50" spans="1:7" s="8" customFormat="1" ht="26" customHeight="1">
-      <c r="A50" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="B50" s="43">
-        <f>B25-B48</f>
-        <v>0</v>
-      </c>
-      <c r="C50" s="43">
-        <f>C25-C48</f>
-        <v>-23115</v>
-      </c>
-      <c r="D50" s="43">
-        <f>D25-D48</f>
-        <v>0</v>
-      </c>
-      <c r="E50" s="44" t="str">
+      <c r="A50" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="38">
+        <f>SUM(B47:B49)</f>
+        <v>0</v>
+      </c>
+      <c r="C50" s="38">
+        <f>SUM(C47:C49)</f>
+        <v>35771</v>
+      </c>
+      <c r="D50" s="38">
+        <f>SUM(D47:D49)</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="34" t="str">
         <f>IF($D$16=0,"-",D50/$D$16)</f>
         <v>-</v>
       </c>
-      <c r="F50" s="44" t="str">
-        <f>IF(B50=0,"-",IF(B50=D50,"0.0%",IF(D50&gt;B50,ABS((D50/B50)-1),IF(AND(D50&lt;B50,B50&lt;0),-((D50/B50)-1),(D50/B50)-1))))</f>
-        <v>-</v>
-      </c>
-      <c r="G50" s="44">
-        <f>IF(C50=0,"-",IF(C50=D50,"0.0%",IF(D50&gt;C50,ABS((D50/C50)-1),IF(AND(D50&lt;C50,C50&lt;0),-((D50/C50)-1),(D50/C50)-1))))</f>
-        <v>1</v>
+      <c r="F50" s="34" t="str">
+        <f>IF(D50=0,"-",D50/B50-1)</f>
+        <v>-</v>
+      </c>
+      <c r="G50" s="34" t="str">
+        <f>IF(D50=0,"-",D50/C50-1)</f>
+        <v>-</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="8" customFormat="1" ht="26" customHeight="1">
-      <c r="A51" s="48"/>
-      <c r="B51" s="49"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="49"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="50"/>
+      <c r="A51" s="39"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
     </row>
     <row r="52" spans="1:7" s="8" customFormat="1" ht="26" customHeight="1">
-      <c r="A52" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33">
-        <v>10000</v>
-      </c>
-      <c r="D52" s="33"/>
-      <c r="E52" s="52" t="str">
+      <c r="A52" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52" s="43">
+        <f>B41+B43-B50*B44</f>
+        <v>0</v>
+      </c>
+      <c r="C52" s="43">
+        <f>C41+C43-C50+C44+C45</f>
+        <v>29954</v>
+      </c>
+      <c r="D52" s="43">
+        <f>D41+D43-D50</f>
+        <v>0</v>
+      </c>
+      <c r="E52" s="44" t="str">
         <f>IF($D$16=0,"-",D52/$D$16)</f>
         <v>-</v>
       </c>
-      <c r="F52" s="34" t="str">
-        <f>IF(D52=0,"-",D52/B52-1)</f>
-        <v>-</v>
-      </c>
-      <c r="G52" s="34" t="str">
-        <f>IF(D52=0,"-",D52/C52-1)</f>
-        <v>-</v>
+      <c r="F52" s="44" t="str">
+        <f>IF(B52=0,"-",IF(B52=D52,"0.0%",IF(D52&gt;B52,ABS((D52/B52)-1),IF(AND(D52&lt;B52,B52&lt;0),-((D52/B52)-1),(D52/B52)-1))))</f>
+        <v>-</v>
+      </c>
+      <c r="G52" s="44">
+        <f>IF(C52=0,"-",IF(C52=D52,"0.0%",IF(D52&gt;C52,ABS((D52/C52)-1),IF(AND(D52&lt;C52,C52&lt;0),-((D52/C52)-1),(D52/C52)-1))))</f>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="8" customFormat="1" ht="26" customHeight="1">
-      <c r="A53" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="B53" s="33"/>
-      <c r="C53" s="33">
-        <v>60000</v>
-      </c>
-      <c r="D53" s="33"/>
-      <c r="E53" s="52" t="str">
-        <f>IF($D$16=0,"-",D53/$D$16)</f>
-        <v>-</v>
-      </c>
-      <c r="F53" s="34" t="str">
-        <f>IF(D53=0,"-",D53/B53-1)</f>
-        <v>-</v>
-      </c>
-      <c r="G53" s="34" t="str">
-        <f>IF(D53=0,"-",D53/C53-1)</f>
-        <v>-</v>
-      </c>
+      <c r="A53" s="2"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
     </row>
     <row r="54" spans="1:7" s="8" customFormat="1" ht="26" customHeight="1">
-      <c r="A54" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="B54" s="33"/>
-      <c r="C54" s="33">
-        <v>13000</v>
-      </c>
-      <c r="D54" s="33"/>
-      <c r="E54" s="52" t="str">
-        <f>IF($D$16=0,"-",D54/$D$16)</f>
-        <v>-</v>
-      </c>
-      <c r="F54" s="34" t="str">
-        <f>IF(D54=0,"-",D54/B54-1)</f>
-        <v>-</v>
-      </c>
-      <c r="G54" s="34" t="str">
-        <f>IF(D54=0,"-",D54/C54-1)</f>
-        <v>-</v>
-      </c>
+      <c r="A54" s="4"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
     </row>
     <row r="55" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
-      <c r="A55" s="48"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
     </row>
     <row r="56" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
-      <c r="A56" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B56" s="33"/>
-      <c r="C56" s="33">
-        <v>35472</v>
-      </c>
-      <c r="D56" s="33"/>
-      <c r="E56" s="34" t="str">
-        <f>IF($D$16=0,"-",D56/$D$16)</f>
-        <v>-</v>
-      </c>
-      <c r="F56" s="34" t="str">
-        <f>IF(D56=0,"-",D56/B56-1)</f>
-        <v>-</v>
-      </c>
-      <c r="G56" s="34" t="str">
-        <f>IF(D56=0,"-",D56/C56-1)</f>
-        <v>-</v>
-      </c>
+      <c r="A56" s="4"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
     </row>
     <row r="57" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
-      <c r="A57" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57" s="33"/>
-      <c r="C57" s="33">
-        <v>299</v>
-      </c>
-      <c r="D57" s="33"/>
-      <c r="E57" s="34" t="str">
-        <f>IF($D$16=0,"-",D57/$D$16)</f>
-        <v>-</v>
-      </c>
-      <c r="F57" s="34" t="str">
-        <f>IF(D57=0,"-",D57/B57-1)</f>
-        <v>-</v>
-      </c>
-      <c r="G57" s="34" t="str">
-        <f>IF(D57=0,"-",D57/C57-1)</f>
-        <v>-</v>
-      </c>
+      <c r="A57" s="4"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
     </row>
     <row r="58" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
-      <c r="A58" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B58" s="33"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="34" t="str">
-        <f>IF($D$16=0,"-",D58/$D$16)</f>
-        <v>-</v>
-      </c>
-      <c r="F58" s="34" t="str">
-        <f>IF(D58=0,"-",D58/B58-1)</f>
-        <v>-</v>
-      </c>
-      <c r="G58" s="34" t="str">
-        <f>IF(D58=0,"-",D58/C58-1)</f>
-        <v>-</v>
-      </c>
+      <c r="A58" s="4"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
     </row>
     <row r="59" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
-      <c r="A59" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="B59" s="38">
-        <f>SUM(B56:B58)</f>
-        <v>0</v>
-      </c>
-      <c r="C59" s="38">
-        <f>SUM(C56:C58)</f>
-        <v>35771</v>
-      </c>
-      <c r="D59" s="38">
-        <f>SUM(D56:D58)</f>
-        <v>0</v>
-      </c>
-      <c r="E59" s="34" t="str">
-        <f>IF($D$16=0,"-",D59/$D$16)</f>
-        <v>-</v>
-      </c>
-      <c r="F59" s="34" t="str">
-        <f>IF(D59=0,"-",D59/B59-1)</f>
-        <v>-</v>
-      </c>
-      <c r="G59" s="34" t="str">
-        <f>IF(D59=0,"-",D59/C59-1)</f>
-        <v>-</v>
-      </c>
+      <c r="A59" s="4"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
     </row>
     <row r="60" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
-      <c r="A60" s="39"/>
-      <c r="B60" s="40"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="41"/>
-      <c r="G60" s="41"/>
+      <c r="A60" s="4"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
     </row>
     <row r="61" spans="1:7" s="3" customFormat="1" ht="26" customHeight="1">
-      <c r="A61" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="B61" s="43">
-        <f>B50+B52-B59*B53</f>
-        <v>0</v>
-      </c>
-      <c r="C61" s="43">
-        <f>C50+C52-C59+C53+C54</f>
-        <v>24114</v>
-      </c>
-      <c r="D61" s="43">
-        <f>D50+D52-D59</f>
-        <v>0</v>
-      </c>
-      <c r="E61" s="44" t="str">
-        <f>IF($D$16=0,"-",D61/$D$16)</f>
-        <v>-</v>
-      </c>
-      <c r="F61" s="44" t="str">
-        <f>IF(B61=0,"-",IF(B61=D61,"0.0%",IF(D61&gt;B61,ABS((D61/B61)-1),IF(AND(D61&lt;B61,B61&lt;0),-((D61/B61)-1),(D61/B61)-1))))</f>
-        <v>-</v>
-      </c>
-      <c r="G61" s="44">
-        <f>IF(C61=0,"-",IF(C61=D61,"0.0%",IF(D61&gt;C61,ABS((D61/C61)-1),IF(AND(D61&lt;C61,C61&lt;0),-((D61/C61)-1),(D61/C61)-1))))</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="26" customHeight="1">
-      <c r="A62" s="2"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
+      <c r="A61" s="4"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2150,8 +2054,8 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="157" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+      <pane ySplit="8" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="26" customHeight="1"/>
@@ -2164,7 +2068,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="26" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -2175,7 +2079,7 @@
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="26" customHeight="1">
       <c r="A2" s="14" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -2195,12 +2099,12 @@
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="15"/>
       <c r="D4" s="14" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
@@ -2217,10 +2121,10 @@
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A6" s="17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B6" s="18" t="str">
-        <f>IF(D14=0,"-",D23/D14)</f>
+        <f>IF(D11=0,"-",D20/D11)</f>
         <v>-</v>
       </c>
       <c r="C6" s="15"/>
@@ -2231,10 +2135,10 @@
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
       <c r="A7" s="19" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B7" s="20" t="str">
-        <f>IF(D14=0,"-",D44/D14)</f>
+        <f>IF(D11=0,"-",D45/D11)</f>
         <v>-</v>
       </c>
       <c r="C7" s="15"/>
@@ -2245,27 +2149,27 @@
     </row>
     <row r="8" spans="1:7" s="6" customFormat="1" ht="1" customHeight="1">
       <c r="B8" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="22" t="s">
         <v>14</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="7" customFormat="1" ht="27" customHeight="1">
       <c r="A9" s="29" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
@@ -2276,7 +2180,7 @@
     </row>
     <row r="10" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
       <c r="A10" s="32" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="54">
@@ -2285,206 +2189,212 @@
       <c r="D10" s="33"/>
     </row>
     <row r="11" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
-      <c r="A11" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
+      <c r="A11" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="38">
+        <f>SUM(B10:B10)</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="38">
+        <f>SUM(C10:C10)</f>
+        <v>472625</v>
+      </c>
+      <c r="D11" s="38">
+        <f>SUM(D10:D10)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
-      <c r="A12" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
     </row>
     <row r="13" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
-      <c r="A13" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
+      <c r="A13" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
     </row>
     <row r="14" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
-      <c r="A14" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="38">
-        <f>SUM(B10:B13)</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="38">
-        <f>SUM(C10:C13)</f>
-        <v>472625</v>
-      </c>
-      <c r="D14" s="38">
-        <f>SUM(D10:D13)</f>
+      <c r="A14" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="33">
+        <v>0</v>
+      </c>
+      <c r="C14" s="33">
+        <v>0</v>
+      </c>
+      <c r="D14" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
-      <c r="A15" s="39"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
+      <c r="A15" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="33">
+        <v>0</v>
+      </c>
+      <c r="C15" s="33">
+        <v>2000</v>
+      </c>
+      <c r="D15" s="33">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
-      <c r="A16" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
     </row>
     <row r="17" spans="1:4" s="7" customFormat="1" ht="26" customHeight="1">
       <c r="A17" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="33">
-        <v>0</v>
-      </c>
-      <c r="C17" s="33">
-        <v>0</v>
-      </c>
-      <c r="D17" s="33">
-        <v>0</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35">
+        <v>0</v>
+      </c>
+      <c r="D17" s="35"/>
     </row>
     <row r="18" spans="1:4" s="7" customFormat="1" ht="26" customHeight="1">
-      <c r="A18" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="33">
-        <v>0</v>
-      </c>
-      <c r="C18" s="33">
-        <v>0</v>
-      </c>
-      <c r="D18" s="33">
+      <c r="A18" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="38">
+        <f>SUM(B14:B17)</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="38">
+        <f>SUM(C14:C17)</f>
+        <v>2000</v>
+      </c>
+      <c r="D18" s="38">
+        <f>SUM(D14:D17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="7" customFormat="1" ht="26" customHeight="1">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
     </row>
     <row r="20" spans="1:4" s="7" customFormat="1" ht="26" customHeight="1">
-      <c r="A20" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35">
-        <v>0</v>
-      </c>
-      <c r="D20" s="35"/>
+      <c r="A20" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="43">
+        <f>B11-B18</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="43">
+        <f>C11-C18</f>
+        <v>470625</v>
+      </c>
+      <c r="D20" s="43">
+        <f>D11-D18</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:4" s="7" customFormat="1" ht="26" customHeight="1">
-      <c r="A21" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="38">
-        <f>SUM(B17:B20)</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="38">
-        <f>SUM(C17:C20)</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="38">
-        <f>SUM(D17:D20)</f>
-        <v>0</v>
-      </c>
+      <c r="A21" s="39"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
     </row>
     <row r="22" spans="1:4" s="7" customFormat="1" ht="26" customHeight="1">
-      <c r="A22" s="39"/>
+      <c r="A22" s="29" t="s">
+        <v>30</v>
+      </c>
       <c r="B22" s="40"/>
       <c r="C22" s="40"/>
       <c r="D22" s="40"/>
     </row>
     <row r="23" spans="1:4" s="7" customFormat="1" ht="26" customHeight="1">
-      <c r="A23" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="43">
-        <f>B14-B21</f>
-        <v>0</v>
-      </c>
-      <c r="C23" s="43">
-        <f>C14-C21</f>
-        <v>472625</v>
-      </c>
-      <c r="D23" s="43">
-        <f>D14-D21</f>
-        <v>0</v>
-      </c>
+      <c r="A23" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="33"/>
+      <c r="C23" s="54">
+        <v>17500</v>
+      </c>
+      <c r="D23" s="33"/>
     </row>
     <row r="24" spans="1:4" s="7" customFormat="1" ht="26" customHeight="1">
-      <c r="A24" s="39"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
+      <c r="A24" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="33"/>
+      <c r="C24" s="53">
+        <f>87360+120000</f>
+        <v>207360</v>
+      </c>
+      <c r="D24" s="53"/>
     </row>
     <row r="25" spans="1:4" s="7" customFormat="1" ht="26" customHeight="1">
-      <c r="A25" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
+      <c r="A25" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="33"/>
+      <c r="C25" s="54">
+        <v>4000</v>
+      </c>
+      <c r="D25" s="33"/>
     </row>
     <row r="26" spans="1:4" s="7" customFormat="1" ht="26" customHeight="1">
       <c r="A26" s="45" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B26" s="33"/>
-      <c r="C26" s="54">
-        <v>17500</v>
+      <c r="C26" s="33">
+        <v>840</v>
       </c>
       <c r="D26" s="33"/>
     </row>
     <row r="27" spans="1:4" s="7" customFormat="1" ht="26" customHeight="1">
       <c r="A27" s="45" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B27" s="33"/>
-      <c r="C27" s="53">
-        <f>87360+120000</f>
-        <v>207360</v>
-      </c>
-      <c r="D27" s="53"/>
+      <c r="C27" s="30">
+        <v>160</v>
+      </c>
+      <c r="D27" s="33"/>
     </row>
     <row r="28" spans="1:4" s="7" customFormat="1" ht="26" customHeight="1">
       <c r="A28" s="45" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B28" s="33"/>
-      <c r="C28" s="54">
-        <v>4000</v>
+      <c r="C28" s="53">
+        <v>3600</v>
       </c>
       <c r="D28" s="33"/>
     </row>
     <row r="29" spans="1:4" s="7" customFormat="1" ht="26" customHeight="1">
       <c r="A29" s="45" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B29" s="33"/>
-      <c r="C29" s="33">
-        <v>840</v>
+      <c r="C29" s="56">
+        <v>1000</v>
       </c>
       <c r="D29" s="33"/>
     </row>
     <row r="30" spans="1:4" s="7" customFormat="1" ht="26" customHeight="1">
       <c r="A30" s="45" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B30" s="33"/>
-      <c r="C30" s="33">
-        <v>1200</v>
+      <c r="C30" s="54">
+        <v>720</v>
       </c>
       <c r="D30" s="33"/>
     </row>
@@ -2493,62 +2403,64 @@
         <v>47</v>
       </c>
       <c r="B31" s="33"/>
-      <c r="C31" s="54">
+      <c r="C31" s="30">
+        <v>24000</v>
+      </c>
+      <c r="D31" s="33"/>
+    </row>
+    <row r="32" spans="1:4" s="7" customFormat="1" ht="26" customHeight="1">
+      <c r="A32" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="33"/>
+      <c r="C32" s="54">
         <v>2500</v>
       </c>
-      <c r="D31" s="33"/>
-    </row>
-    <row r="32" spans="1:4" s="7" customFormat="1" ht="26" customHeight="1">
-      <c r="A32" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="38">
-        <f>SUM(B29:B31)</f>
-        <v>0</v>
-      </c>
-      <c r="C32" s="38">
-        <f>SUM(C26:C31)</f>
-        <v>233400</v>
-      </c>
-      <c r="D32" s="38">
-        <f>SUM(D29:D31)</f>
-        <v>0</v>
-      </c>
+      <c r="D32" s="33"/>
     </row>
     <row r="33" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
-      <c r="A33" s="47"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
+      <c r="A33" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="38">
+        <f>SUM(B26:B32)</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="38">
+        <f>SUM(C23:C32)</f>
+        <v>261680</v>
+      </c>
+      <c r="D33" s="38">
+        <f>SUM(D26:D32)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
-      <c r="A34" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="43">
-        <f>B23-B32</f>
-        <v>0</v>
-      </c>
-      <c r="C34" s="43">
-        <f>C23-C32</f>
-        <v>239225</v>
-      </c>
-      <c r="D34" s="43">
-        <f>D23-D32</f>
-        <v>0</v>
-      </c>
+      <c r="A34" s="47"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
     </row>
     <row r="35" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
-      <c r="A35" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
+      <c r="A35" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="43">
+        <f>B20-B33</f>
+        <v>0</v>
+      </c>
+      <c r="C35" s="43">
+        <f>C20-C33</f>
+        <v>208945</v>
+      </c>
+      <c r="D35" s="43">
+        <f>D20-D33</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
       <c r="A36" s="51" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B36" s="33"/>
       <c r="C36" s="33"/>
@@ -2556,100 +2468,102 @@
     </row>
     <row r="37" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
       <c r="A37" s="51" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
     </row>
     <row r="38" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
-      <c r="A38" s="48"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
+      <c r="A38" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
     </row>
     <row r="39" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
-      <c r="A39" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="53">
-        <v>108703.75000000001</v>
-      </c>
-      <c r="D39" s="33"/>
+      <c r="A39" s="48"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
     </row>
     <row r="40" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
       <c r="A40" s="32" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B40" s="33"/>
-      <c r="C40" s="54">
-        <v>17472</v>
+      <c r="C40" s="53">
+        <v>108703.75000000001</v>
       </c>
       <c r="D40" s="33"/>
     </row>
     <row r="41" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
       <c r="A41" s="32" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
+      <c r="C41" s="54">
+        <v>17472</v>
+      </c>
       <c r="D41" s="33"/>
     </row>
     <row r="42" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
-      <c r="A42" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="38">
-        <f>SUM(B39:B41)</f>
-        <v>0</v>
-      </c>
-      <c r="C42" s="38">
-        <f>SUM(C39:C41)</f>
+      <c r="A42" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+    </row>
+    <row r="43" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
+      <c r="A43" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="38">
+        <f>SUM(B40:B42)</f>
+        <v>0</v>
+      </c>
+      <c r="C43" s="38">
+        <f>SUM(C40:C42)</f>
         <v>126175.75000000001</v>
       </c>
-      <c r="D42" s="38">
-        <f>SUM(D39:D41)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
-      <c r="A43" s="39"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
+      <c r="D43" s="38">
+        <f>SUM(D40:D42)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
-      <c r="A44" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" s="43">
-        <f>B34+B35-B42*B36</f>
-        <v>0</v>
-      </c>
-      <c r="C44" s="43">
-        <f>C34+C35-C42+C36+C37</f>
-        <v>113049.24999999999</v>
-      </c>
-      <c r="D44" s="43">
-        <f>D34+D35-D42</f>
-        <v>0</v>
-      </c>
+      <c r="A44" s="39"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
     </row>
     <row r="45" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
-      <c r="A45" s="2"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
+      <c r="A45" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="43">
+        <f>B35+B36-B43*B37</f>
+        <v>0</v>
+      </c>
+      <c r="C45" s="43">
+        <f>C35+C36-C43+C37+C38</f>
+        <v>82769.249999999985</v>
+      </c>
+      <c r="D45" s="43">
+        <f>D35+D36-D43</f>
+        <v>0</v>
+      </c>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
     </row>
     <row r="46" spans="1:7" s="7" customFormat="1" ht="26" customHeight="1">
-      <c r="A46" s="4"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
+      <c r="A46" s="2"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
@@ -2778,7 +2692,7 @@
   <pageSetup scale="93" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="C32" formula="1"/>
+    <ignoredError sqref="C33" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>